--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_6_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_6_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73020.9651696278</v>
+        <v>-33855.07683251995</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29728395.40901621</v>
+        <v>28170964.55874667</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3413043.715640625</v>
+        <v>4099998.849859969</v>
       </c>
     </row>
     <row r="11">
@@ -23270,49 +23272,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G11" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H11" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I11" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J11" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K11" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L11" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M11" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N11" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P11" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q11" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R11" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S11" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T11" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U11" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V11" t="n">
         <v>308.2281821605244</v>
@@ -23349,22 +23351,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H12" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I12" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J12" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K12" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L12" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23373,25 +23375,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R12" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S12" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T12" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U12" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V12" t="n">
         <v>255.0969898936781</v>
@@ -23428,49 +23430,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H13" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I13" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J13" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K13" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L13" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M13" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N13" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O13" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P13" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q13" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R13" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S13" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T13" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U13" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V13" t="n">
         <v>232.1699497460494</v>
@@ -23507,49 +23509,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G14" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H14" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I14" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J14" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K14" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L14" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M14" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N14" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P14" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R14" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S14" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T14" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U14" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V14" t="n">
         <v>308.2281821605244</v>
@@ -23586,22 +23588,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H15" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I15" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J15" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K15" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L15" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23610,25 +23612,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R15" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S15" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T15" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U15" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V15" t="n">
         <v>255.0969898936781</v>
@@ -23665,49 +23667,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H16" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I16" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J16" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K16" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L16" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M16" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N16" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O16" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P16" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R16" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S16" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T16" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U16" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V16" t="n">
         <v>232.1699497460494</v>
@@ -23744,49 +23746,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G17" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H17" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I17" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J17" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K17" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L17" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M17" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N17" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P17" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q17" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R17" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S17" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T17" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U17" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V17" t="n">
         <v>308.2281821605244</v>
@@ -23823,22 +23825,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H18" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I18" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J18" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K18" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L18" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23847,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R18" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S18" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T18" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U18" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V18" t="n">
         <v>255.0969898936781</v>
@@ -23902,49 +23904,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H19" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I19" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J19" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K19" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L19" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M19" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N19" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O19" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P19" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q19" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R19" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S19" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T19" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U19" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V19" t="n">
         <v>232.1699497460494</v>
@@ -23981,49 +23983,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G20" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H20" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I20" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J20" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K20" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L20" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M20" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N20" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P20" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R20" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S20" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T20" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U20" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V20" t="n">
         <v>308.2281821605244</v>
@@ -24060,22 +24062,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H21" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I21" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J21" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K21" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L21" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24084,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R21" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S21" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T21" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U21" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V21" t="n">
         <v>255.0969898936781</v>
@@ -24139,49 +24141,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H22" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I22" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J22" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K22" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L22" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M22" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N22" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O22" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P22" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q22" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R22" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S22" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T22" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U22" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V22" t="n">
         <v>232.1699497460494</v>
@@ -24218,49 +24220,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G23" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H23" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I23" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J23" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K23" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L23" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M23" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N23" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P23" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R23" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S23" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T23" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U23" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V23" t="n">
         <v>308.2281821605244</v>
@@ -24297,22 +24299,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H24" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I24" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J24" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K24" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L24" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24321,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R24" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S24" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T24" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U24" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V24" t="n">
         <v>255.0969898936781</v>
@@ -24376,49 +24378,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H25" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I25" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J25" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K25" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L25" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M25" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N25" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O25" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P25" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q25" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R25" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S25" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T25" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U25" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V25" t="n">
         <v>232.1699497460494</v>
@@ -24455,49 +24457,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G26" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H26" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I26" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J26" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K26" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L26" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M26" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N26" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P26" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q26" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R26" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S26" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T26" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U26" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V26" t="n">
         <v>308.2281821605244</v>
@@ -24534,22 +24536,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H27" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I27" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J27" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K27" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L27" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24558,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R27" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S27" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T27" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U27" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V27" t="n">
         <v>255.0969898936781</v>
@@ -24613,49 +24615,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H28" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I28" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J28" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K28" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L28" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M28" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N28" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O28" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P28" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q28" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R28" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S28" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T28" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U28" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V28" t="n">
         <v>232.1699497460494</v>
@@ -24692,49 +24694,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G29" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H29" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I29" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J29" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K29" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L29" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M29" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N29" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P29" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q29" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R29" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S29" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T29" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U29" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V29" t="n">
         <v>308.2281821605244</v>
@@ -24771,22 +24773,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H30" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I30" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J30" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K30" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L30" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24795,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R30" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S30" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T30" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U30" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V30" t="n">
         <v>255.0969898936781</v>
@@ -24850,49 +24852,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H31" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I31" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J31" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K31" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L31" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M31" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N31" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O31" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P31" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q31" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R31" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S31" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T31" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U31" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V31" t="n">
         <v>232.1699497460494</v>
@@ -24929,49 +24931,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G32" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H32" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I32" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J32" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K32" t="n">
-        <v>140.9296117214526</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L32" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M32" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N32" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P32" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q32" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R32" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S32" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T32" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U32" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V32" t="n">
         <v>308.2281821605244</v>
@@ -25008,22 +25010,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H33" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I33" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J33" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K33" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L33" t="n">
-        <v>27.22701059689194</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25032,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>43.64096701700126</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R33" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S33" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T33" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U33" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V33" t="n">
         <v>255.0969898936781</v>
@@ -25087,49 +25089,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H34" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I34" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J34" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K34" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L34" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M34" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N34" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O34" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P34" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q34" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R34" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S34" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T34" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U34" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V34" t="n">
         <v>232.1699497460494</v>
@@ -25166,49 +25168,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G35" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H35" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I35" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J35" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K35" t="n">
-        <v>140.9296117214527</v>
+        <v>91.8812048361512</v>
       </c>
       <c r="L35" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M35" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N35" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P35" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q35" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R35" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S35" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117803</v>
       </c>
       <c r="T35" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U35" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V35" t="n">
         <v>308.2281821605244</v>
@@ -25245,22 +25247,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H36" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I36" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J36" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K36" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L36" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25269,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R36" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S36" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T36" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U36" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V36" t="n">
         <v>255.0969898936781</v>
@@ -25324,49 +25326,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H37" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I37" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J37" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K37" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L37" t="n">
-        <v>105.5690853463604</v>
+        <v>79.8543393358629</v>
       </c>
       <c r="M37" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N37" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O37" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P37" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q37" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R37" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S37" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T37" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029073</v>
       </c>
       <c r="U37" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V37" t="n">
         <v>232.1699497460494</v>
@@ -25403,49 +25405,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G38" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H38" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I38" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J38" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K38" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L38" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M38" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N38" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P38" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R38" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S38" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T38" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U38" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V38" t="n">
         <v>308.2281821605244</v>
@@ -25482,22 +25484,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H39" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I39" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J39" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K39" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L39" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25506,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R39" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S39" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T39" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U39" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V39" t="n">
         <v>255.0969898936781</v>
@@ -25561,49 +25563,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H40" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I40" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J40" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K40" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L40" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M40" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N40" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O40" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P40" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q40" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R40" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S40" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T40" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U40" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V40" t="n">
         <v>232.1699497460494</v>
@@ -25640,49 +25642,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H41" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I41" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J41" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K41" t="n">
-        <v>140.9296117214527</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L41" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M41" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N41" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P41" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q41" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R41" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S41" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T41" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U41" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V41" t="n">
         <v>308.2281821605244</v>
@@ -25719,22 +25721,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H42" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I42" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J42" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K42" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L42" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25743,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R42" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S42" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T42" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U42" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V42" t="n">
         <v>255.0969898936781</v>
@@ -25798,49 +25800,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H43" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I43" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J43" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K43" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L43" t="n">
-        <v>105.5690853463604</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M43" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N43" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O43" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P43" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q43" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R43" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S43" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T43" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U43" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V43" t="n">
         <v>232.1699497460494</v>
@@ -25877,49 +25879,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>424.798345271243</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H44" t="n">
-        <v>355.2993036160095</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I44" t="n">
-        <v>276.0837296184653</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J44" t="n">
-        <v>149.6006091008002</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K44" t="n">
-        <v>140.9296117214527</v>
+        <v>91.8812048361512</v>
       </c>
       <c r="L44" t="n">
-        <v>114.2645714324614</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M44" t="n">
-        <v>75.15868967310212</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N44" t="n">
-        <v>68.80166552921241</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>86.85614816471269</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P44" t="n">
-        <v>130.7601436734049</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q44" t="n">
-        <v>177.2668497534603</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R44" t="n">
-        <v>243.3067662398352</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S44" t="n">
-        <v>249.0750657376202</v>
+        <v>240.2884492117803</v>
       </c>
       <c r="T44" t="n">
-        <v>218.9062337784199</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U44" t="n">
-        <v>247.9065905880188</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25956,22 +25958,22 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.4396339152703</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H45" t="n">
-        <v>147.7549385906295</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I45" t="n">
-        <v>130.3391129523499</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J45" t="n">
-        <v>119.988978019839</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K45" t="n">
-        <v>76.79584047590225</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L45" t="n">
-        <v>27.22701059689192</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25980,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>14.83625009529541</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>43.64096701700123</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.1109056471342</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R45" t="n">
-        <v>180.1326862501631</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S45" t="n">
-        <v>222.7903258345591</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T45" t="n">
-        <v>241.0454331447226</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9865365567521</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26035,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.7615211301363</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H46" t="n">
-        <v>170.2600838752892</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I46" t="n">
-        <v>174.7665305018606</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J46" t="n">
-        <v>152.3372809867477</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K46" t="n">
-        <v>120.8581989270142</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L46" t="n">
-        <v>105.5690853463604</v>
+        <v>79.8543393358629</v>
       </c>
       <c r="M46" t="n">
-        <v>105.9596068035418</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N46" t="n">
-        <v>90.54267004656877</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O46" t="n">
-        <v>116.9730019489985</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P46" t="n">
-        <v>131.3791998612571</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q46" t="n">
-        <v>182.2027128338766</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R46" t="n">
-        <v>240.4874216723248</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S46" t="n">
-        <v>252.1781230856995</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T46" t="n">
-        <v>215.008376252787</v>
+        <v>214.2693564029073</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9463188228607</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>393342.4688013186</v>
+        <v>472511.8703566866</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>393342.4688013186</v>
+        <v>472511.8703566866</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>393342.4688013186</v>
+        <v>472511.8703566866</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>393342.4688013186</v>
+        <v>472511.8703566866</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>393342.4688013186</v>
+        <v>472511.8703566866</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>393342.4688013186</v>
+        <v>472511.8703566866</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>393342.4688013186</v>
+        <v>472511.8703566866</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>393342.4688013186</v>
+        <v>472511.8703566866</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>393342.4688013186</v>
+        <v>472511.8703566866</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>393342.4688013186</v>
+        <v>472511.8703566866</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>393342.4688013186</v>
+        <v>472511.8703566866</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>393342.4688013186</v>
+        <v>472511.8703566866</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58034.13474117815</v>
+        <v>69714.86611819967</v>
       </c>
       <c r="F2" t="n">
-        <v>58034.13474117815</v>
+        <v>69714.86611819967</v>
       </c>
       <c r="G2" t="n">
-        <v>58034.13474117815</v>
+        <v>69714.86611819967</v>
       </c>
       <c r="H2" t="n">
-        <v>58034.13474117815</v>
+        <v>69714.86611819967</v>
       </c>
       <c r="I2" t="n">
-        <v>58034.13474117815</v>
+        <v>69714.86611819967</v>
       </c>
       <c r="J2" t="n">
-        <v>58034.13474117815</v>
+        <v>69714.86611819967</v>
       </c>
       <c r="K2" t="n">
-        <v>58034.13474117815</v>
+        <v>69714.86611819967</v>
       </c>
       <c r="L2" t="n">
-        <v>58034.13474117815</v>
+        <v>69714.86611819967</v>
       </c>
       <c r="M2" t="n">
-        <v>58034.13474117815</v>
+        <v>69714.8661181997</v>
       </c>
       <c r="N2" t="n">
-        <v>58034.13474117815</v>
+        <v>69714.8661181997</v>
       </c>
       <c r="O2" t="n">
-        <v>58034.13474117815</v>
+        <v>69714.86611819967</v>
       </c>
       <c r="P2" t="n">
-        <v>58034.13474117815</v>
+        <v>69714.8661181997</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>340477.4817237768</v>
+        <v>417536.1554080973</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="F5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="G5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="H5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="I5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="J5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="K5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="L5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="M5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="N5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="O5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
       <c r="P5" t="n">
-        <v>9238.712204931193</v>
+        <v>11329.66666529316</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-291682.0591875299</v>
+        <v>-359150.9559551908</v>
       </c>
       <c r="F6" t="n">
-        <v>48795.42253624695</v>
+        <v>58385.19945290651</v>
       </c>
       <c r="G6" t="n">
-        <v>48795.42253624696</v>
+        <v>58385.19945290651</v>
       </c>
       <c r="H6" t="n">
-        <v>48795.42253624696</v>
+        <v>58385.19945290651</v>
       </c>
       <c r="I6" t="n">
-        <v>48795.42253624695</v>
+        <v>58385.19945290651</v>
       </c>
       <c r="J6" t="n">
-        <v>48795.42253624695</v>
+        <v>58385.19945290651</v>
       </c>
       <c r="K6" t="n">
-        <v>48795.42253624695</v>
+        <v>58385.19945290651</v>
       </c>
       <c r="L6" t="n">
-        <v>48795.42253624695</v>
+        <v>58385.19945290651</v>
       </c>
       <c r="M6" t="n">
-        <v>48795.42253624696</v>
+        <v>58385.19945290654</v>
       </c>
       <c r="N6" t="n">
-        <v>48795.42253624695</v>
+        <v>58385.19945290654</v>
       </c>
       <c r="O6" t="n">
-        <v>48795.42253624695</v>
+        <v>58385.19945290651</v>
       </c>
       <c r="P6" t="n">
-        <v>48795.42253624696</v>
+        <v>58385.19945290654</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="F3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="G3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="H3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="I3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="J3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="K3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="L3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="M3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="N3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="O3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="P3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>423.7941378408804</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H11" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I11" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J11" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K11" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L11" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M11" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N11" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P11" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R11" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S11" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T11" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U11" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H12" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I12" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J12" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K12" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L12" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>230.9678051232798</v>
@@ -31853,25 +31855,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R12" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S12" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T12" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H13" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I13" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J13" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K13" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L13" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M13" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N13" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O13" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P13" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R13" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S13" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T13" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H14" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I14" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J14" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K14" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L14" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M14" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N14" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P14" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R14" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S14" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T14" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U14" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H15" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I15" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J15" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K15" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L15" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>230.9678051232798</v>
@@ -32090,25 +32092,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R15" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S15" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T15" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H16" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I16" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J16" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K16" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L16" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M16" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N16" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O16" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P16" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R16" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S16" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T16" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H17" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I17" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J17" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K17" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L17" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M17" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N17" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P17" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R17" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S17" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T17" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U17" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H18" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I18" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J18" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K18" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L18" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>230.9678051232798</v>
@@ -32327,25 +32329,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R18" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S18" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T18" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H19" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I19" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J19" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K19" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L19" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M19" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N19" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O19" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P19" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R19" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S19" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T19" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H20" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I20" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J20" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K20" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L20" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M20" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N20" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P20" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R20" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S20" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T20" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U20" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H21" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I21" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J21" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K21" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L21" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>230.9678051232798</v>
@@ -32564,25 +32566,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R21" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S21" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T21" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H22" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I22" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J22" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K22" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L22" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M22" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N22" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O22" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P22" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R22" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S22" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T22" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H23" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I23" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J23" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K23" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L23" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M23" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N23" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P23" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R23" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S23" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T23" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U23" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H24" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I24" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J24" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K24" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L24" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>230.9678051232798</v>
@@ -32801,25 +32803,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R24" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S24" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T24" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H25" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I25" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J25" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K25" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L25" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M25" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N25" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O25" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P25" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q25" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R25" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S25" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T25" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H26" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I26" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J26" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K26" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L26" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M26" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N26" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P26" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q26" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R26" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S26" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T26" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U26" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H27" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I27" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J27" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K27" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L27" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>230.9678051232798</v>
@@ -33038,25 +33040,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R27" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S27" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T27" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H28" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I28" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J28" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K28" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L28" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M28" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N28" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O28" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P28" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R28" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S28" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T28" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H29" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I29" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J29" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K29" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L29" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M29" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N29" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P29" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R29" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S29" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T29" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U29" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H30" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I30" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J30" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K30" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L30" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>230.9678051232798</v>
@@ -33275,25 +33277,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R30" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S30" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T30" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H31" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I31" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J31" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K31" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L31" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M31" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N31" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O31" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P31" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R31" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S31" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T31" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H32" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I32" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J32" t="n">
-        <v>144.5989857550651</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K32" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L32" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M32" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N32" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P32" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R32" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S32" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T32" t="n">
-        <v>7.457924978486244</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U32" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9115572021483087</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H33" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I33" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J33" t="n">
-        <v>86.12216531349439</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K33" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L33" t="n">
-        <v>197.9238565454036</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>230.9678051232798</v>
@@ -33512,25 +33514,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R33" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S33" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T33" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H34" t="n">
-        <v>6.794601095219365</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I34" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J34" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K34" t="n">
-        <v>88.78834560010573</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L34" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M34" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N34" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O34" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P34" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R34" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S34" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T34" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H35" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696482</v>
       </c>
       <c r="I35" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J35" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173252</v>
       </c>
       <c r="K35" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119422</v>
       </c>
       <c r="L35" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M35" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N35" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P35" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q35" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R35" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S35" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T35" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U35" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H36" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I36" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J36" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033754</v>
       </c>
       <c r="K36" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L36" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>230.9678051232798</v>
@@ -33749,25 +33751,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R36" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S36" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T36" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.0735437943480169</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H37" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033027</v>
       </c>
       <c r="I37" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J37" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K37" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L37" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M37" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N37" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O37" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P37" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R37" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S37" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792974</v>
       </c>
       <c r="T37" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719343</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H38" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I38" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J38" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K38" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L38" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M38" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N38" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P38" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q38" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R38" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S38" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T38" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U38" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H39" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I39" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J39" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K39" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L39" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>230.9678051232798</v>
@@ -33986,25 +33988,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R39" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S39" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T39" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H40" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I40" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J40" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K40" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L40" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M40" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N40" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O40" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P40" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R40" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S40" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T40" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H41" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I41" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J41" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K41" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L41" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M41" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N41" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P41" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R41" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S41" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T41" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U41" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H42" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I42" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J42" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K42" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L42" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>230.9678051232798</v>
@@ -34223,25 +34225,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R42" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S42" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T42" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H43" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I43" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J43" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K43" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L43" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M43" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N43" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O43" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P43" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R43" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S43" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T43" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.703695026496</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H44" t="n">
-        <v>17.44796669010217</v>
+        <v>21.39688326696482</v>
       </c>
       <c r="I44" t="n">
-        <v>65.68170250898712</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J44" t="n">
-        <v>144.598985755065</v>
+        <v>177.3253969173252</v>
       </c>
       <c r="K44" t="n">
-        <v>216.7163962266408</v>
+        <v>265.7648031119422</v>
       </c>
       <c r="L44" t="n">
-        <v>268.8558528937678</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M44" t="n">
-        <v>299.1539393212161</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N44" t="n">
-        <v>303.9945628152478</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>287.0534453955282</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P44" t="n">
-        <v>244.9934744289081</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.9798962925201</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R44" t="n">
-        <v>107.0197327081295</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S44" t="n">
-        <v>38.82295041627765</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T44" t="n">
-        <v>7.457924978486245</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U44" t="n">
-        <v>0.13629560211968</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9115572021483088</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H45" t="n">
-        <v>8.803723504958668</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I45" t="n">
-        <v>31.38475454765011</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J45" t="n">
-        <v>86.12216531349441</v>
+        <v>105.6137916033754</v>
       </c>
       <c r="K45" t="n">
-        <v>147.1964978574311</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L45" t="n">
-        <v>197.9238565454037</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>230.9678051232798</v>
@@ -34460,25 +34462,25 @@
         <v>213.4302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>216.8826471269268</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>174.0674450312854</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.3594772426508</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R45" t="n">
-        <v>56.59650769127835</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S45" t="n">
-        <v>16.93177522411441</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T45" t="n">
-        <v>3.674215213922349</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05997086856238876</v>
+        <v>0.0735437943480169</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7642189370901121</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H46" t="n">
-        <v>6.794601095219366</v>
+        <v>8.332391336033027</v>
       </c>
       <c r="I46" t="n">
-        <v>22.98214767176447</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J46" t="n">
-        <v>54.03027885227092</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K46" t="n">
-        <v>88.78834560010574</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L46" t="n">
-        <v>113.6185136106518</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M46" t="n">
-        <v>119.7947921113164</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N46" t="n">
-        <v>116.9463397094352</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O46" t="n">
-        <v>108.0188730352461</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P46" t="n">
-        <v>92.4288067186077</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.99291481397294</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R46" t="n">
-        <v>34.36206238952449</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S46" t="n">
-        <v>13.31825184001586</v>
+        <v>16.33250939792974</v>
       </c>
       <c r="T46" t="n">
-        <v>3.265299094839569</v>
+        <v>4.004318944719343</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04168466929582434</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_6_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_6_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33855.07683251995</v>
+        <v>-199946.8125069959</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28170964.55874667</v>
+        <v>28026613.09356894</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4099998.849859969</v>
+        <v>4163669.721744137</v>
       </c>
     </row>
     <row r="11">
@@ -23272,49 +23272,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G11" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H11" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I11" t="n">
-        <v>261.2182975345403</v>
+        <v>259.6164745708601</v>
       </c>
       <c r="J11" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K11" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410687</v>
       </c>
       <c r="L11" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245953</v>
       </c>
       <c r="M11" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241410272</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839843</v>
       </c>
       <c r="P11" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199632</v>
       </c>
       <c r="Q11" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899279</v>
       </c>
       <c r="R11" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S11" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U11" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V11" t="n">
         <v>308.2281821605244</v>
@@ -23351,19 +23351,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H12" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I12" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J12" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948979</v>
       </c>
       <c r="K12" t="n">
-        <v>43.48154656593752</v>
+        <v>39.8917685694083</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23378,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310452</v>
       </c>
       <c r="R12" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S12" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938958</v>
       </c>
       <c r="T12" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U12" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V12" t="n">
         <v>255.0969898936781</v>
@@ -23430,49 +23430,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I13" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J13" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K13" t="n">
-        <v>100.7631485409216</v>
+        <v>98.59780864477683</v>
       </c>
       <c r="L13" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923127</v>
       </c>
       <c r="M13" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828205</v>
       </c>
       <c r="N13" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749971</v>
       </c>
       <c r="O13" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018567</v>
       </c>
       <c r="P13" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q13" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R13" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S13" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433639</v>
       </c>
       <c r="T13" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U13" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V13" t="n">
         <v>232.1699497460494</v>
@@ -23509,49 +23509,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G14" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H14" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I14" t="n">
-        <v>261.2182975345403</v>
+        <v>259.6164745708601</v>
       </c>
       <c r="J14" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K14" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410687</v>
       </c>
       <c r="L14" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245953</v>
       </c>
       <c r="M14" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241410272</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839843</v>
       </c>
       <c r="P14" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199632</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899279</v>
       </c>
       <c r="R14" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S14" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U14" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V14" t="n">
         <v>308.2281821605244</v>
@@ -23588,19 +23588,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H15" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I15" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J15" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948979</v>
       </c>
       <c r="K15" t="n">
-        <v>43.48154656593752</v>
+        <v>39.8917685694083</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23615,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310452</v>
       </c>
       <c r="R15" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S15" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938958</v>
       </c>
       <c r="T15" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U15" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V15" t="n">
         <v>255.0969898936781</v>
@@ -23667,49 +23667,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H16" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I16" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J16" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K16" t="n">
-        <v>100.7631485409216</v>
+        <v>98.59780864477683</v>
       </c>
       <c r="L16" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923127</v>
       </c>
       <c r="M16" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828205</v>
       </c>
       <c r="N16" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749971</v>
       </c>
       <c r="O16" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018567</v>
       </c>
       <c r="P16" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q16" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R16" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S16" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433639</v>
       </c>
       <c r="T16" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U16" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V16" t="n">
         <v>232.1699497460494</v>
@@ -23746,49 +23746,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G17" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H17" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I17" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J17" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K17" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L17" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M17" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P17" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q17" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R17" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S17" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U17" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V17" t="n">
         <v>308.2281821605244</v>
@@ -23825,19 +23825,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H18" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I18" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J18" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K18" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23852,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R18" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S18" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T18" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U18" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V18" t="n">
         <v>255.0969898936781</v>
@@ -23904,49 +23904,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H19" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I19" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J19" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K19" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L19" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M19" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N19" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O19" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P19" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q19" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R19" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S19" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T19" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U19" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V19" t="n">
         <v>232.1699497460494</v>
@@ -23983,49 +23983,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G20" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H20" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I20" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J20" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K20" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L20" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M20" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P20" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R20" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S20" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U20" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V20" t="n">
         <v>308.2281821605244</v>
@@ -24062,19 +24062,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H21" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I21" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J21" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K21" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24089,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R21" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S21" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T21" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U21" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V21" t="n">
         <v>255.0969898936781</v>
@@ -24141,49 +24141,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H22" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I22" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J22" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K22" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L22" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M22" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N22" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O22" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P22" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q22" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R22" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S22" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T22" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U22" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V22" t="n">
         <v>232.1699497460494</v>
@@ -24220,49 +24220,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G23" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H23" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I23" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J23" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K23" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L23" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M23" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P23" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R23" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S23" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U23" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V23" t="n">
         <v>308.2281821605244</v>
@@ -24299,19 +24299,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H24" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I24" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J24" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K24" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24326,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R24" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S24" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T24" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U24" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V24" t="n">
         <v>255.0969898936781</v>
@@ -24378,49 +24378,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H25" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I25" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J25" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K25" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L25" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M25" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N25" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O25" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P25" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q25" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R25" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S25" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T25" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U25" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V25" t="n">
         <v>232.1699497460494</v>
@@ -24457,49 +24457,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G26" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H26" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I26" t="n">
-        <v>261.2182975345403</v>
+        <v>259.6164745708601</v>
       </c>
       <c r="J26" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K26" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410687</v>
       </c>
       <c r="L26" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245953</v>
       </c>
       <c r="M26" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409703</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839838</v>
       </c>
       <c r="P26" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199632</v>
       </c>
       <c r="Q26" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899279</v>
       </c>
       <c r="R26" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S26" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U26" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V26" t="n">
         <v>308.2281821605244</v>
@@ -24536,19 +24536,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H27" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I27" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J27" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948978</v>
       </c>
       <c r="K27" t="n">
-        <v>43.48154656593752</v>
+        <v>39.8917685694083</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24563,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R27" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S27" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T27" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U27" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V27" t="n">
         <v>255.0969898936781</v>
@@ -24615,49 +24615,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H28" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I28" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J28" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K28" t="n">
-        <v>100.7631485409216</v>
+        <v>98.59780864477682</v>
       </c>
       <c r="L28" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M28" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828205</v>
       </c>
       <c r="N28" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749971</v>
       </c>
       <c r="O28" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018567</v>
       </c>
       <c r="P28" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q28" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R28" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S28" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T28" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U28" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V28" t="n">
         <v>232.1699497460494</v>
@@ -24694,49 +24694,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G29" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H29" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I29" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J29" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K29" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L29" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M29" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P29" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q29" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R29" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S29" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U29" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V29" t="n">
         <v>308.2281821605244</v>
@@ -24773,19 +24773,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H30" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I30" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J30" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K30" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24800,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R30" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S30" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T30" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U30" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V30" t="n">
         <v>255.0969898936781</v>
@@ -24852,49 +24852,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H31" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I31" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J31" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K31" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L31" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M31" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N31" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O31" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P31" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q31" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R31" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S31" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T31" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U31" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V31" t="n">
         <v>232.1699497460494</v>
@@ -24931,49 +24931,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G32" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H32" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I32" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J32" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K32" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L32" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M32" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P32" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q32" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R32" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S32" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U32" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V32" t="n">
         <v>308.2281821605244</v>
@@ -25010,19 +25010,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H33" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I33" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J33" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K33" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25037,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R33" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S33" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T33" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U33" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V33" t="n">
         <v>255.0969898936781</v>
@@ -25089,49 +25089,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H34" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I34" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J34" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K34" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L34" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M34" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N34" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O34" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P34" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q34" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R34" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S34" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T34" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U34" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V34" t="n">
         <v>232.1699497460494</v>
@@ -25168,49 +25168,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G35" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H35" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I35" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J35" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K35" t="n">
-        <v>91.8812048361512</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L35" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M35" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P35" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R35" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S35" t="n">
-        <v>240.2884492117803</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U35" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V35" t="n">
         <v>308.2281821605244</v>
@@ -25247,19 +25247,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H36" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I36" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J36" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K36" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25274,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R36" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S36" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T36" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U36" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V36" t="n">
         <v>255.0969898936781</v>
@@ -25326,49 +25326,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H37" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I37" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J37" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K37" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L37" t="n">
-        <v>79.8543393358629</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M37" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N37" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O37" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P37" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q37" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R37" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S37" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T37" t="n">
-        <v>214.2693564029073</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U37" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V37" t="n">
         <v>232.1699497460494</v>
@@ -25405,49 +25405,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G38" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H38" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I38" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J38" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K38" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L38" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M38" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P38" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R38" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S38" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U38" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V38" t="n">
         <v>308.2281821605244</v>
@@ -25484,19 +25484,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H39" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I39" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J39" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K39" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25511,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R39" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S39" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T39" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U39" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V39" t="n">
         <v>255.0969898936781</v>
@@ -25563,49 +25563,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H40" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I40" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J40" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K40" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L40" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M40" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N40" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O40" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P40" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q40" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R40" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S40" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T40" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U40" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V40" t="n">
         <v>232.1699497460494</v>
@@ -25642,49 +25642,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H41" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I41" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J41" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K41" t="n">
-        <v>91.88120483615114</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L41" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M41" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P41" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q41" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R41" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S41" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U41" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V41" t="n">
         <v>308.2281821605244</v>
@@ -25721,19 +25721,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H42" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I42" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K42" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25748,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R42" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S42" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T42" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U42" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V42" t="n">
         <v>255.0969898936781</v>
@@ -25800,49 +25800,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H43" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I43" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J43" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K43" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L43" t="n">
-        <v>79.85433933586287</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M43" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N43" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O43" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P43" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q43" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R43" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S43" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T43" t="n">
-        <v>214.2693564029072</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U43" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V43" t="n">
         <v>232.1699497460494</v>
@@ -25879,49 +25879,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>424.412755955792</v>
+        <v>424.3712068224367</v>
       </c>
       <c r="H44" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9248719771719</v>
       </c>
       <c r="I44" t="n">
-        <v>261.2182975345403</v>
+        <v>259.61647457086</v>
       </c>
       <c r="J44" t="n">
-        <v>116.87419793854</v>
+        <v>113.3477671814256</v>
       </c>
       <c r="K44" t="n">
-        <v>91.8812048361512</v>
+        <v>86.59599926410681</v>
       </c>
       <c r="L44" t="n">
-        <v>53.41568553442607</v>
+        <v>46.85892067245942</v>
       </c>
       <c r="M44" t="n">
-        <v>7.452579786414901</v>
+        <v>0.1569155241409135</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>21.88868639101628</v>
+        <v>14.88812484839832</v>
       </c>
       <c r="P44" t="n">
-        <v>75.31191812490522</v>
+        <v>69.33710081199627</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.6275415645501</v>
+        <v>131.1407025899278</v>
       </c>
       <c r="R44" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4755306550058</v>
       </c>
       <c r="S44" t="n">
-        <v>240.2884492117803</v>
+        <v>239.3416483354463</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0364352187702</v>
       </c>
       <c r="U44" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8724195121143</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25958,19 +25958,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.2333254433287</v>
+        <v>169.2110946971189</v>
       </c>
       <c r="H45" t="n">
-        <v>145.7624330852993</v>
+        <v>145.547730878483</v>
       </c>
       <c r="I45" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4705477659964</v>
       </c>
       <c r="J45" t="n">
-        <v>100.4973517299579</v>
+        <v>98.39703372948976</v>
       </c>
       <c r="K45" t="n">
-        <v>43.48154656593752</v>
+        <v>39.89176856940827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.77581017613943</v>
+        <v>81.93807492310449</v>
       </c>
       <c r="R45" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9432074249376</v>
       </c>
       <c r="S45" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5453100938957</v>
       </c>
       <c r="T45" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1242597171736</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9715010818737</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26037,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.5885590376112</v>
+        <v>169.569921526768</v>
       </c>
       <c r="H46" t="n">
-        <v>168.7222936344755</v>
+        <v>168.5565892198879</v>
       </c>
       <c r="I46" t="n">
-        <v>169.5650886648345</v>
+        <v>169.0046078842048</v>
       </c>
       <c r="J46" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7911890286131</v>
       </c>
       <c r="K46" t="n">
-        <v>100.7631485409216</v>
+        <v>98.5978086447768</v>
       </c>
       <c r="L46" t="n">
-        <v>79.8543393358629</v>
+        <v>77.08344976923124</v>
       </c>
       <c r="M46" t="n">
-        <v>78.84701260891001</v>
+        <v>75.92549806828202</v>
       </c>
       <c r="N46" t="n">
-        <v>64.0747527422576</v>
+        <v>61.22270528749968</v>
       </c>
       <c r="O46" t="n">
-        <v>92.52559636191177</v>
+        <v>89.89126892018564</v>
       </c>
       <c r="P46" t="n">
-        <v>110.4602209616816</v>
+        <v>108.2060987411565</v>
       </c>
       <c r="Q46" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1588587736505</v>
       </c>
       <c r="R46" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8724067790583</v>
       </c>
       <c r="S46" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8390645433638</v>
       </c>
       <c r="T46" t="n">
-        <v>214.2693564029073</v>
+        <v>214.1897234020318</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358679354043</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>472511.8703566866</v>
+        <v>479849.7365032238</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>472511.8703566866</v>
+        <v>479849.7365032238</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>472511.8703566866</v>
+        <v>479849.7365032239</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>472511.8703566866</v>
+        <v>479849.7365032239</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>472511.8703566866</v>
+        <v>479849.7365032239</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>472511.8703566866</v>
+        <v>479849.7365032239</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>472511.8703566866</v>
+        <v>479849.7365032239</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>472511.8703566866</v>
+        <v>479849.7365032239</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>472511.8703566866</v>
+        <v>479849.7365032239</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>472511.8703566866</v>
+        <v>479849.7365032239</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>472511.8703566866</v>
+        <v>479849.7365032239</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>472511.8703566866</v>
+        <v>479849.7365032239</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>69714.86611819967</v>
+        <v>70797.50210703303</v>
       </c>
       <c r="F2" t="n">
-        <v>69714.86611819967</v>
+        <v>70797.50210703303</v>
       </c>
       <c r="G2" t="n">
-        <v>69714.86611819967</v>
+        <v>70797.50210703305</v>
       </c>
       <c r="H2" t="n">
-        <v>69714.86611819967</v>
+        <v>70797.50210703305</v>
       </c>
       <c r="I2" t="n">
-        <v>69714.86611819967</v>
+        <v>70797.50210703305</v>
       </c>
       <c r="J2" t="n">
-        <v>69714.86611819967</v>
+        <v>70797.50210703305</v>
       </c>
       <c r="K2" t="n">
-        <v>69714.86611819967</v>
+        <v>70797.50210703304</v>
       </c>
       <c r="L2" t="n">
-        <v>69714.86611819967</v>
+        <v>70797.50210703304</v>
       </c>
       <c r="M2" t="n">
-        <v>69714.8661181997</v>
+        <v>70797.50210703305</v>
       </c>
       <c r="N2" t="n">
-        <v>69714.8661181997</v>
+        <v>70797.50210703304</v>
       </c>
       <c r="O2" t="n">
-        <v>69714.86611819967</v>
+        <v>70797.50210703307</v>
       </c>
       <c r="P2" t="n">
-        <v>69714.8661181997</v>
+        <v>70797.50210703307</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>417536.1554080973</v>
+        <v>425839.6041313781</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="F5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="G5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="H5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="I5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="J5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="K5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="L5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="M5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="N5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="O5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
       <c r="P5" t="n">
-        <v>11329.66666529316</v>
+        <v>11554.97722819562</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-58605.12002744887</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-58605.12002744887</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-58605.12002744887</v>
       </c>
       <c r="E6" t="n">
-        <v>-359150.9559551908</v>
+        <v>-383708.2101569858</v>
       </c>
       <c r="F6" t="n">
-        <v>58385.19945290651</v>
+        <v>42131.3939743922</v>
       </c>
       <c r="G6" t="n">
-        <v>58385.19945290651</v>
+        <v>42131.39397439223</v>
       </c>
       <c r="H6" t="n">
-        <v>58385.19945290651</v>
+        <v>42131.39397439223</v>
       </c>
       <c r="I6" t="n">
-        <v>58385.19945290651</v>
+        <v>42131.39397439223</v>
       </c>
       <c r="J6" t="n">
-        <v>58385.19945290651</v>
+        <v>42131.39397439223</v>
       </c>
       <c r="K6" t="n">
-        <v>58385.19945290651</v>
+        <v>42131.39397439222</v>
       </c>
       <c r="L6" t="n">
-        <v>58385.19945290651</v>
+        <v>42131.39397439222</v>
       </c>
       <c r="M6" t="n">
-        <v>58385.19945290654</v>
+        <v>42131.39397439223</v>
       </c>
       <c r="N6" t="n">
-        <v>58385.19945290654</v>
+        <v>42131.39397439222</v>
       </c>
       <c r="O6" t="n">
-        <v>58385.19945290651</v>
+        <v>42131.39397439225</v>
       </c>
       <c r="P6" t="n">
-        <v>58385.19945290654</v>
+        <v>42131.39397439225</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814502</v>
       </c>
       <c r="F3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814502</v>
       </c>
       <c r="G3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="H3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="I3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="J3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814502</v>
       </c>
       <c r="K3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="L3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="M3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="N3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="O3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
       <c r="P3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814503</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.0448269814502</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H11" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I11" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659242</v>
       </c>
       <c r="J11" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K11" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L11" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537697</v>
       </c>
       <c r="M11" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701771</v>
       </c>
       <c r="N11" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118425</v>
       </c>
       <c r="P11" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R11" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S11" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845146</v>
       </c>
       <c r="T11" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135871</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241848</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H12" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710522</v>
       </c>
       <c r="I12" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400363</v>
       </c>
       <c r="J12" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K12" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L12" t="n">
         <v>225.1508671422956</v>
@@ -31858,22 +31858,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R12" t="n">
-        <v>69.40573018603516</v>
+        <v>70.7859865165039</v>
       </c>
       <c r="S12" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T12" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471251</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.0750063434407713</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583528</v>
       </c>
       <c r="H13" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620633</v>
       </c>
       <c r="I13" t="n">
-        <v>28.18358950879063</v>
+        <v>28.74407028942029</v>
       </c>
       <c r="J13" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040554</v>
       </c>
       <c r="K13" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823431</v>
       </c>
       <c r="L13" t="n">
-        <v>139.3332596211493</v>
+        <v>142.1041491877809</v>
       </c>
       <c r="M13" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465761</v>
       </c>
       <c r="N13" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O13" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P13" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.47613148895721</v>
+        <v>80.03676887419898</v>
       </c>
       <c r="R13" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S13" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T13" t="n">
-        <v>4.004318944719344</v>
+        <v>4.083951945594779</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227385</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H14" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I14" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659242</v>
       </c>
       <c r="J14" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K14" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L14" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537697</v>
       </c>
       <c r="M14" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701771</v>
       </c>
       <c r="N14" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118425</v>
       </c>
       <c r="P14" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R14" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S14" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845146</v>
       </c>
       <c r="T14" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135871</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241848</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H15" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710522</v>
       </c>
       <c r="I15" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400363</v>
       </c>
       <c r="J15" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K15" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L15" t="n">
         <v>225.1508671422956</v>
@@ -32095,22 +32095,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R15" t="n">
-        <v>69.40573018603516</v>
+        <v>70.7859865165039</v>
       </c>
       <c r="S15" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T15" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471251</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.0750063434407713</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583528</v>
       </c>
       <c r="H16" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620633</v>
       </c>
       <c r="I16" t="n">
-        <v>28.18358950879063</v>
+        <v>28.74407028942029</v>
       </c>
       <c r="J16" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040554</v>
       </c>
       <c r="K16" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823431</v>
       </c>
       <c r="L16" t="n">
-        <v>139.3332596211493</v>
+        <v>142.1041491877809</v>
       </c>
       <c r="M16" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465761</v>
       </c>
       <c r="N16" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O16" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P16" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.47613148895721</v>
+        <v>80.03676887419898</v>
       </c>
       <c r="R16" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S16" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T16" t="n">
-        <v>4.004318944719344</v>
+        <v>4.083951945594779</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227385</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H17" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I17" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J17" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K17" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L17" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M17" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N17" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P17" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q17" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R17" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S17" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T17" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H18" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I18" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J18" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K18" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L18" t="n">
         <v>225.1508671422956</v>
@@ -32332,22 +32332,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482867</v>
       </c>
       <c r="Q18" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R18" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S18" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T18" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H19" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I19" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J19" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K19" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L19" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M19" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N19" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O19" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P19" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R19" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S19" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T19" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H20" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I20" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J20" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K20" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L20" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M20" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N20" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P20" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q20" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R20" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S20" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T20" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H21" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I21" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J21" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K21" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L21" t="n">
         <v>225.1508671422956</v>
@@ -32569,22 +32569,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482867</v>
       </c>
       <c r="Q21" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R21" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S21" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T21" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H22" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I22" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J22" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K22" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L22" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M22" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N22" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O22" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P22" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R22" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S22" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T22" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H23" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I23" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J23" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K23" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L23" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M23" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N23" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P23" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q23" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R23" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S23" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T23" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H24" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I24" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J24" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K24" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L24" t="n">
         <v>225.1508671422956</v>
@@ -32806,22 +32806,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482867</v>
       </c>
       <c r="Q24" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R24" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S24" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T24" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H25" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I25" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J25" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K25" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L25" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M25" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N25" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O25" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P25" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R25" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S25" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T25" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H26" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I26" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659242</v>
       </c>
       <c r="J26" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K26" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L26" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537697</v>
       </c>
       <c r="M26" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701772</v>
       </c>
       <c r="N26" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118425</v>
       </c>
       <c r="P26" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q26" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R26" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S26" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845146</v>
       </c>
       <c r="T26" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H27" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710522</v>
       </c>
       <c r="I27" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400363</v>
       </c>
       <c r="J27" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K27" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L27" t="n">
         <v>225.1508671422956</v>
@@ -33043,22 +33043,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R27" t="n">
-        <v>69.40573018603516</v>
+        <v>70.7859865165039</v>
       </c>
       <c r="S27" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T27" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471251</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.0750063434407713</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H28" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I28" t="n">
-        <v>28.18358950879063</v>
+        <v>28.74407028942029</v>
       </c>
       <c r="J28" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040554</v>
       </c>
       <c r="K28" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L28" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M28" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465761</v>
       </c>
       <c r="N28" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O28" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P28" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R28" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S28" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T28" t="n">
-        <v>4.004318944719344</v>
+        <v>4.083951945594779</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227385</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H29" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I29" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J29" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K29" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L29" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M29" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N29" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P29" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q29" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R29" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S29" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T29" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H30" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I30" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J30" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K30" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L30" t="n">
         <v>225.1508671422956</v>
@@ -33280,22 +33280,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482867</v>
       </c>
       <c r="Q30" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R30" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S30" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T30" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H31" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I31" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J31" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K31" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L31" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M31" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N31" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O31" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P31" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R31" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S31" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T31" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H32" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I32" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J32" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K32" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L32" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M32" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N32" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P32" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q32" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R32" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S32" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T32" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H33" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I33" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J33" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K33" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L33" t="n">
         <v>225.1508671422956</v>
@@ -33517,22 +33517,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R33" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S33" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T33" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H34" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I34" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J34" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K34" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L34" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M34" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N34" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O34" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P34" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R34" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S34" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T34" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H35" t="n">
-        <v>21.39688326696482</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I35" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J35" t="n">
-        <v>177.3253969173252</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K35" t="n">
-        <v>265.7648031119422</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L35" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M35" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N35" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P35" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q35" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R35" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S35" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T35" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H36" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I36" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J36" t="n">
-        <v>105.6137916033754</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K36" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L36" t="n">
         <v>225.1508671422956</v>
@@ -33754,22 +33754,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R36" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S36" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T36" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0735437943480169</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H37" t="n">
-        <v>8.332391336033027</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I37" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J37" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K37" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L37" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M37" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N37" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O37" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P37" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R37" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S37" t="n">
-        <v>16.33250939792974</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T37" t="n">
-        <v>4.004318944719343</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H38" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I38" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J38" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K38" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L38" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M38" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N38" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P38" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q38" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R38" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S38" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T38" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H39" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I39" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J39" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K39" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L39" t="n">
         <v>225.1508671422956</v>
@@ -33991,22 +33991,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R39" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S39" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T39" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H40" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I40" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J40" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K40" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L40" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M40" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N40" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O40" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P40" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R40" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S40" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T40" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H41" t="n">
-        <v>21.39688326696483</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I41" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J41" t="n">
-        <v>177.3253969173253</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K41" t="n">
-        <v>265.7648031119423</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L41" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M41" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N41" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P41" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q41" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R41" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S41" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T41" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H42" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I42" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J42" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K42" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L42" t="n">
         <v>225.1508671422956</v>
@@ -34228,22 +34228,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R42" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S42" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T42" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H43" t="n">
-        <v>8.332391336033025</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I43" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J43" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K43" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L43" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M43" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N43" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O43" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P43" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R43" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S43" t="n">
-        <v>16.33250939792975</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T43" t="n">
-        <v>4.004318944719344</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.08928434194701</v>
+        <v>2.130833475302311</v>
       </c>
       <c r="H44" t="n">
-        <v>21.39688326696482</v>
+        <v>21.8223983289398</v>
       </c>
       <c r="I44" t="n">
-        <v>80.5471345929122</v>
+        <v>82.14895755659244</v>
       </c>
       <c r="J44" t="n">
-        <v>177.3253969173252</v>
+        <v>180.8518276744397</v>
       </c>
       <c r="K44" t="n">
-        <v>265.7648031119422</v>
+        <v>271.0500086839866</v>
       </c>
       <c r="L44" t="n">
-        <v>329.7047387918032</v>
+        <v>336.2615036537698</v>
       </c>
       <c r="M44" t="n">
-        <v>366.8600492079033</v>
+        <v>374.1557134701773</v>
       </c>
       <c r="N44" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>352.0209071692246</v>
+        <v>359.0214687118426</v>
       </c>
       <c r="P44" t="n">
-        <v>300.4416999774078</v>
+        <v>306.4165172903167</v>
       </c>
       <c r="Q44" t="n">
-        <v>225.6192044814304</v>
+        <v>230.1060434560526</v>
       </c>
       <c r="R44" t="n">
-        <v>131.241007544829</v>
+        <v>133.8509682929589</v>
       </c>
       <c r="S44" t="n">
-        <v>47.60956694211755</v>
+        <v>48.55636781845147</v>
       </c>
       <c r="T44" t="n">
-        <v>9.145842206873043</v>
+        <v>9.327723538135873</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1704666780241849</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140096420299723</v>
       </c>
       <c r="H45" t="n">
-        <v>10.79622901028888</v>
+        <v>11.01093121710523</v>
       </c>
       <c r="I45" t="n">
-        <v>38.48791904212884</v>
+        <v>39.25331973400364</v>
       </c>
       <c r="J45" t="n">
-        <v>105.6137916033754</v>
+        <v>107.7141096038436</v>
       </c>
       <c r="K45" t="n">
-        <v>180.5107917673958</v>
+        <v>184.1005697639251</v>
       </c>
       <c r="L45" t="n">
         <v>225.1508671422956</v>
@@ -34465,22 +34465,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5323079666805</v>
       </c>
       <c r="R45" t="n">
-        <v>69.40573018603516</v>
+        <v>70.78598651650391</v>
       </c>
       <c r="S45" t="n">
-        <v>20.76386460425675</v>
+        <v>21.17679096477774</v>
       </c>
       <c r="T45" t="n">
-        <v>4.505783133721833</v>
+        <v>4.595388641471252</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0735437943480169</v>
+        <v>0.07500634344077131</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9558185404583529</v>
       </c>
       <c r="H46" t="n">
-        <v>8.332391336033027</v>
+        <v>8.498095750620635</v>
       </c>
       <c r="I46" t="n">
-        <v>28.18358950879063</v>
+        <v>28.7440702894203</v>
       </c>
       <c r="J46" t="n">
-        <v>66.25869879379222</v>
+        <v>67.57637081040555</v>
       </c>
       <c r="K46" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0487358823432</v>
       </c>
       <c r="L46" t="n">
-        <v>139.3332596211493</v>
+        <v>142.104149187781</v>
       </c>
       <c r="M46" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8289008465762</v>
       </c>
       <c r="N46" t="n">
-        <v>143.4142570137463</v>
+        <v>146.2663044685042</v>
       </c>
       <c r="O46" t="n">
-        <v>132.4662786223328</v>
+        <v>135.1006060640589</v>
       </c>
       <c r="P46" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6019078387084</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.47613148895721</v>
+        <v>80.036768874199</v>
       </c>
       <c r="R46" t="n">
-        <v>42.13906702251462</v>
+        <v>42.97707728279102</v>
       </c>
       <c r="S46" t="n">
-        <v>16.33250939792974</v>
+        <v>16.65731038235147</v>
       </c>
       <c r="T46" t="n">
-        <v>4.004318944719343</v>
+        <v>4.08395194559478</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05213555675227386</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
